--- a/Jogos_do_Dia/2023-12-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ17"/>
+  <dimension ref="A1:AQ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,61 +682,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Z2" t="n">
         <v>1.33</v>
@@ -830,13 +830,13 @@
         <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>5.25</v>
+        <v>5.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.35</v>
@@ -893,43 +893,43 @@
         <v>3.19</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4">
@@ -951,124 +951,124 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="K4" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.96</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R4" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="S4" t="n">
         <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="X4" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
         <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.24</v>
+        <v>3.07</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.97</v>
+        <v>2.93</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="5">
@@ -1090,130 +1090,130 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>3.6</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.93</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R5" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="S5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.2</v>
       </c>
-      <c r="T5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.85</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
         <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.51</v>
+        <v>2.7</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="AL5" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1221,39 +1221,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Rheindorf Altach</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Austria Lustenau</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.82</v>
       </c>
       <c r="L6" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="M6" t="n">
         <v>1.33</v>
@@ -1262,97 +1262,97 @@
         <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="R6" t="n">
         <v>4</v>
       </c>
       <c r="S6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.8</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>1.95</v>
       </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="X6" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.09</v>
+        <v>0.71</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.65</v>
+        <v>1.31</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.6</v>
+        <v>4.13</v>
       </c>
       <c r="AH6" t="n">
         <v>1.23</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AJ6" t="n">
         <v>1.44</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1360,138 +1360,138 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Wattens</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Rapid Wien</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="H7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2.55</v>
+        <v>1.53</v>
       </c>
       <c r="M7" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="P7" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP7" t="n">
         <v>3</v>
       </c>
-      <c r="S7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1499,132 +1499,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>1.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.77</v>
+        <v>3.9</v>
       </c>
       <c r="M8" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="N8" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P8" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Q8" t="n">
         <v>1.27</v>
       </c>
       <c r="R8" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>1.24</v>
       </c>
       <c r="X8" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.21</v>
+        <v>2.05</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.88</v>
+        <v>0.67</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.67</v>
+        <v>1.09</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="9">
@@ -1646,124 +1646,124 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="M9" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="N9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.07</v>
       </c>
       <c r="P9" t="n">
-        <v>7.5</v>
+        <v>7.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="R9" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="S9" t="n">
         <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.85</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.82</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="X9" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.25</v>
+        <v>1.88</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="10">
@@ -1785,130 +1785,130 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Amiens SC</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.3</v>
       </c>
-      <c r="H10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L10" t="n">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="N10" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.07</v>
       </c>
       <c r="P10" t="n">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W10" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="X10" t="n">
         <v>1.33</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.17</v>
+        <v>0.75</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,128 +1920,128 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Saint-Étienne</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
         <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>2.85</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P11" t="n">
-        <v>10.2</v>
+        <v>7.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="R11" t="n">
-        <v>3.84</v>
+        <v>2.9</v>
       </c>
       <c r="S11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.8</v>
       </c>
-      <c r="T11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="X11" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.08</v>
+        <v>1.53</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.29</v>
+        <v>2.9</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12">
@@ -2063,37 +2063,37 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Saint-Étienne</t>
+          <t>Angers SCO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Grenoble Foot 38</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="M12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N12" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O12" t="n">
         <v>1.07</v>
@@ -2111,82 +2111,82 @@
         <v>2.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1.8</v>
       </c>
-      <c r="W12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AC12" t="n">
         <v>1.32</v>
       </c>
-      <c r="Y12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AD12" t="n">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,128 +2198,128 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Angers SCO</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grenoble Foot 38</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="M13" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="N13" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>7.75</v>
+        <v>10.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="R13" t="n">
-        <v>2.9</v>
+        <v>3.84</v>
       </c>
       <c r="S13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.1</v>
       </c>
-      <c r="T13" t="n">
-        <v>1.67</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.5</v>
+        <v>1.14</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.63</v>
+        <v>0.86</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.97</v>
+        <v>2.29</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="14">
@@ -2341,124 +2341,124 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.1</v>
+        <v>4.33</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R14" t="n">
         <v>3.4</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P14" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.95</v>
-      </c>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W14" t="n">
-        <v>1.29</v>
+        <v>1.98</v>
       </c>
       <c r="X14" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.68</v>
+        <v>1.21</v>
       </c>
       <c r="Z14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA14" t="n">
         <v>1.88</v>
       </c>
-      <c r="AA14" t="n">
-        <v>0.88</v>
-      </c>
       <c r="AB14" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="AD14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK14" t="n">
         <v>2.46</v>
       </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15">
@@ -2480,124 +2480,124 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.2</v>
       </c>
-      <c r="H15" t="n">
+      <c r="L15" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>1.85</v>
       </c>
-      <c r="I15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P15" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="16">
@@ -2619,130 +2619,130 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Ajaccio</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z16" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
+      <c r="AA16" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN16" t="n">
         <v>3.9</v>
       </c>
-      <c r="J16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P16" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2750,131 +2750,409 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>17:15:00</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D19" t="n">
         <v>15</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Luton Town</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G19" t="n">
         <v>8</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>2.75</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I19" t="n">
         <v>1.67</v>
       </c>
-      <c r="J17" t="n">
-        <v>9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="J19" t="n">
+        <v>8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="L19" t="n">
         <v>1.33</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M19" t="n">
         <v>1.25</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N19" t="n">
         <v>3.75</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O19" t="n">
         <v>1.02</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P19" t="n">
         <v>20</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q19" t="n">
         <v>1.16</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R19" t="n">
         <v>5.6</v>
       </c>
-      <c r="S17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="S19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.95</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V19" t="n">
         <v>1.8</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W19" t="n">
         <v>3.8</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X19" t="n">
         <v>1.13</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y19" t="n">
         <v>1.04</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z19" t="n">
         <v>0.83</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA19" t="n">
         <v>2.17</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB19" t="n">
         <v>1.38</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC19" t="n">
         <v>1.45</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD19" t="n">
         <v>2.83</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE19" t="n">
         <v>4.1</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF19" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG19" t="n">
         <v>1.33</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH19" t="n">
         <v>1.19</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI19" t="n">
         <v>3.8</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ19" t="n">
         <v>1.36</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK19" t="n">
         <v>2.7</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL19" t="n">
         <v>1.63</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM19" t="n">
         <v>2.08</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN19" t="n">
         <v>2</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO19" t="n">
         <v>1.68</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP19" t="n">
         <v>2.55</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ19" t="n">
         <v>1.42</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-12-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
         <v>1.91</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="K2" t="n">
         <v>2.8</v>
       </c>
       <c r="L2" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.57</v>
@@ -712,19 +712,19 @@
         <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R2" t="n">
         <v>2.4</v>
       </c>
       <c r="S2" t="n">
-        <v>2.29</v>
+        <v>2.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
         <v>1.67</v>
@@ -739,10 +739,10 @@
         <v>1.41</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AB2" t="n">
         <v>1.29</v>
@@ -754,43 +754,43 @@
         <v>2.73</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
@@ -830,13 +830,13 @@
         <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
         <v>1.35</v>
@@ -857,10 +857,10 @@
         <v>3.7</v>
       </c>
       <c r="S3" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>1.77</v>
@@ -878,10 +878,10 @@
         <v>1.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AB3" t="n">
         <v>1.59</v>
@@ -951,124 +951,124 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N4" t="n">
         <v>2.35</v>
       </c>
-      <c r="K4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.5</v>
       </c>
-      <c r="N4" t="n">
+      <c r="R4" t="n">
         <v>2.4</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.75</v>
-      </c>
       <c r="S4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.2</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>1.62</v>
       </c>
-      <c r="U4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.84</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="X4" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.93</v>
+        <v>2.59</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AI4" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="AL4" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="5">
@@ -1090,124 +1090,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="M5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>2.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R5" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE5" t="n">
         <v>1.62</v>
       </c>
-      <c r="W5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AF5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AL5" t="n">
         <v>2</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>2.04</v>
-      </c>
       <c r="AM5" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="6">
@@ -1247,13 +1247,13 @@
         <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="K6" t="n">
-        <v>3.82</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.33</v>
@@ -1274,10 +1274,10 @@
         <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="T6" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
         <v>1.8</v>
@@ -1295,10 +1295,10 @@
         <v>2.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AB6" t="n">
         <v>1.41</v>
@@ -1413,10 +1413,10 @@
         <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="T7" t="n">
-        <v>2.57</v>
+        <v>2.49</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1434,10 +1434,10 @@
         <v>1.12</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AB7" t="n">
         <v>1.28</v>
@@ -1525,13 +1525,13 @@
         <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.9</v>
+        <v>4.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.33</v>
@@ -1552,10 +1552,10 @@
         <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T8" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="U8" t="n">
         <v>1.7</v>
@@ -1646,16 +1646,16 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -1670,7 +1670,7 @@
         <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.43</v>
@@ -1682,88 +1682,88 @@
         <v>1.07</v>
       </c>
       <c r="P9" t="n">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R9" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
         <v>1.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V9" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>1.29</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="10">
@@ -1785,16 +1785,16 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1803,13 +1803,13 @@
         <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.43</v>
@@ -1821,88 +1821,88 @@
         <v>1.07</v>
       </c>
       <c r="P10" t="n">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="S10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="U10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.42</v>
+        <v>2.84</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.45</v>
+        <v>2.14</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.88</v>
+        <v>2.13</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.18</v>
+        <v>3.92</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="11">
@@ -1924,37 +1924,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Saint-Étienne</t>
+          <t>Angers SCO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Grenoble Foot 38</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N11" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O11" t="n">
         <v>1.07</v>
@@ -1972,76 +1972,76 @@
         <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y11" t="n">
         <v>1.8</v>
       </c>
-      <c r="W11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AC11" t="n">
         <v>1.32</v>
       </c>
-      <c r="Y11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AD11" t="n">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.45</v>
+        <v>3.26</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.51</v>
+        <v>2.58</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="12">
@@ -2063,37 +2063,37 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Angers SCO</t>
+          <t>Saint-Étienne</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grenoble Foot 38</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N12" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.07</v>
@@ -2111,82 +2111,82 @@
         <v>2.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="X12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AB12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>1.61</v>
       </c>
-      <c r="AC12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1.63</v>
-      </c>
       <c r="AK12" t="n">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.58</v>
+        <v>2.51</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,128 +2198,128 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="I13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R13" t="n">
         <v>3.4</v>
       </c>
-      <c r="J13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P13" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3.84</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="W13" t="n">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="X13" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="Z13" t="n">
         <v>1.14</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.86</v>
+        <v>1.88</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.08</v>
+        <v>1.67</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.29</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.68</v>
+        <v>2.61</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.53</v>
+        <v>1.69</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AI13" t="n">
-        <v>4.85</v>
+        <v>3.48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.28</v>
+        <v>2.46</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.54</v>
+        <v>1.86</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.41</v>
+        <v>1.94</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.9</v>
+        <v>2.31</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.37</v>
+        <v>3.08</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="14">
@@ -2341,124 +2341,124 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Amiens SC</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>4.33</v>
+        <v>2.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.77</v>
+        <v>2.55</v>
       </c>
       <c r="M14" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="N14" t="n">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="O14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P14" t="n">
-        <v>9.5</v>
+        <v>7.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="R14" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="S14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.85</v>
       </c>
-      <c r="T14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V14" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>1.98</v>
+        <v>1.49</v>
       </c>
       <c r="X14" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="Z14" t="n">
         <v>1.14</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.88</v>
+        <v>1.17</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>2.61</v>
       </c>
       <c r="AE14" t="n">
-        <v>2.61</v>
+        <v>2.19</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AI14" t="n">
-        <v>3.48</v>
+        <v>3.65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.46</v>
+        <v>2.57</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.94</v>
+        <v>2.01</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.31</v>
+        <v>2.23</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="15">
@@ -2480,124 +2480,124 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="I15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.1</v>
       </c>
-      <c r="J15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>3.2</v>
       </c>
-      <c r="L15" t="n">
-        <v>2.55</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="N15" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="S15" t="n">
         <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V15" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W15" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
         <v>1.33</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AC15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO15" t="n">
         <v>1.58</v>
       </c>
-      <c r="AD15" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AP15" t="n">
-        <v>4.65</v>
+        <v>3.18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="16">
@@ -2637,13 +2637,13 @@
         <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.55</v>
@@ -2664,10 +2664,10 @@
         <v>2.4</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T16" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="U16" t="n">
         <v>2.05</v>
@@ -2742,7 +2742,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2754,128 +2754,128 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
         <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="K17" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="M17" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="N17" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>7.5</v>
+        <v>10.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="R17" t="n">
-        <v>2.85</v>
+        <v>3.84</v>
       </c>
       <c r="S17" t="n">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="V17" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.25</v>
+        <v>1.14</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.38</v>
+        <v>0.86</v>
       </c>
       <c r="AB17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>1.56</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="18">
@@ -2897,34 +2897,34 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Amiens SC</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L18" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="M18" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="N18" t="n">
         <v>2.55</v>
@@ -2933,25 +2933,25 @@
         <v>1.07</v>
       </c>
       <c r="P18" t="n">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="R18" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W18" t="n">
         <v>1.49</v>
@@ -2963,58 +2963,58 @@
         <v>1.44</v>
       </c>
       <c r="Z18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>1.14</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="19">
@@ -3054,13 +3054,13 @@
         <v>1.67</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M19" t="n">
         <v>1.25</v>
@@ -3081,10 +3081,10 @@
         <v>5.6</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="T19" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="U19" t="n">
         <v>1.95</v>
